--- a/Uloha6/Uloha6.xlsx
+++ b/Uloha6/Uloha6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{40512326-FFF1-408C-9625-D36730F73A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C1AFBE-A6DF-4620-B719-6848C1496AA9}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{40512326-FFF1-408C-9625-D36730F73A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C42CE71-3C62-486A-84E8-EE0154F00689}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{36740686-4C6F-4DA1-8A46-4259B500491E}"/>
+    <workbookView xWindow="16560" yWindow="288" windowWidth="30720" windowHeight="16272" activeTab="1" xr2:uid="{36740686-4C6F-4DA1-8A46-4259B500491E}"/>
   </bookViews>
   <sheets>
     <sheet name="6A" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>k</t>
   </si>
@@ -327,11 +349,23 @@
   <si>
     <t>DeltaN</t>
   </si>
+  <si>
+    <t xml:space="preserve">U' = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_ref = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_C = </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -973,12 +1007,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,31 +1016,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1048,9 +1052,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,7 +1091,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,6 +1166,2057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.917311898512686E-2"/>
+                  <c:y val="-1.5000911344415281E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="cs-CZ"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6A'!$E$9:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6A'!$E$11:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-5.0029769999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.879</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9539999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A61-4DB4-BD1B-3325AA26F9B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1132993999"/>
+        <c:axId val="1132994479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1132993999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1132994479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1132994479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1132993999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6A'!$E$9:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6A'!$E$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7744980392162546E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.5259960784312909E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2774941176472154E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8992156862805984E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.195098039217136E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3198823529410078E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.8348627450924813E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1650156862748324E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2135176470589055E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4620196078439793E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7105215686280548E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9590235294119083E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2075254901969821E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4560274509820559E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7045294117652432E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88F5-443A-AE58-49D6D7B4FADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1609407967"/>
+        <c:axId val="1554040831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1609407967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554040831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1554040831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1609407967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C92564-ECE4-0D2D-7EA9-9530CC5EB609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3520263D-8144-0A24-5D5A-1E67ACCEAA36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,14 +3538,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62598626-73E1-4767-A2D9-7FABD54778C2}">
   <dimension ref="C2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:21" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:21" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,112 +3605,152 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="49">
         <v>-1.21</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="49">
         <v>-1.95</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="49">
         <v>-2.38</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="50">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="50">
         <v>-2.16</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="50">
         <v>-1.53</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="50">
         <v>-0.66</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="51">
         <v>0.28799999999999998</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="49">
         <v>1.2</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="49">
         <v>1.93</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="49">
         <v>2.37</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="50">
         <v>2.4500000000000002</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="50">
         <v>2.14</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="50">
         <v>1.52</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="50">
         <v>0.66</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="51">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="21.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="20"/>
+      <c r="E5" s="52" cm="1">
+        <f t="array" ref="E5:T5">POWER(E4:T4,2)</f>
+        <v>1.4641</v>
+      </c>
+      <c r="F5" s="52">
+        <v>3.8024999999999998</v>
+      </c>
+      <c r="G5" s="52">
+        <v>5.6643999999999997</v>
+      </c>
+      <c r="H5" s="53">
+        <v>6.0025000000000013</v>
+      </c>
+      <c r="I5" s="53">
+        <v>4.6656000000000004</v>
+      </c>
+      <c r="J5" s="53">
+        <v>2.3409</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.43560000000000004</v>
+      </c>
+      <c r="L5" s="54">
+        <v>8.294399999999999E-2</v>
+      </c>
+      <c r="M5" s="52">
+        <v>1.44</v>
+      </c>
+      <c r="N5" s="52">
+        <v>3.7248999999999999</v>
+      </c>
+      <c r="O5" s="52">
+        <v>5.6169000000000002</v>
+      </c>
+      <c r="P5" s="53">
+        <v>6.0025000000000013</v>
+      </c>
+      <c r="Q5" s="53">
+        <v>4.5796000000000001</v>
+      </c>
+      <c r="R5" s="53">
+        <v>2.3104</v>
+      </c>
+      <c r="S5" s="53">
+        <v>0.43560000000000004</v>
+      </c>
+      <c r="T5" s="54">
+        <v>8.4099999999999994E-2</v>
+      </c>
     </row>
-    <row r="6" spans="3:21" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="55" t="s">
+    <row r="6" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="46"/>
     </row>
-    <row r="7" spans="3:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+    <row r="7" spans="3:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="56">
+        <f>SQRT((1/16)*SUM(_xlfn.ANCHORARRAY(E5)))</f>
+        <v>1.7437843903418795</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -1614,358 +3767,470 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="3:21" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="3:21" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="58" t="s">
+    <row r="9" spans="3:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="30">
         <v>16</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="30">
         <v>32</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="30">
         <v>48</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="30">
         <v>64</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="30">
         <v>80</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="31">
         <v>96</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="30">
         <v>112</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="30">
         <v>128</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="30">
         <v>144</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="30">
         <v>160</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="30">
         <v>176</v>
       </c>
-      <c r="Q9" s="40">
+      <c r="Q9" s="30">
         <v>192</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="31">
         <v>208</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="30">
         <v>224</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="30">
         <v>240</v>
       </c>
-      <c r="U9" s="40">
+      <c r="U9" s="30">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="18.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
-      <c r="D10" s="23" t="s">
+    <row r="10" spans="3:21" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="48"/>
+      <c r="D10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>10000</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>100000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <v>110000</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>1000000</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>1010000</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="23">
         <v>1100000</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>1110000</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <v>10000000</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <v>10010000</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <v>10100000</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <v>10110000</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <v>11000000</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="23">
         <v>11010000</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S10" s="22">
         <v>11100000</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T10" s="22">
         <v>11110000</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U10" s="22">
         <v>11111111</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="18.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="42" t="s">
+    <row r="11" spans="3:21" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="26">
-        <v>-5</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="E11" s="57">
+        <v>-5.0029769999999996</v>
+      </c>
+      <c r="F11" s="57">
         <v>-4.38</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="57">
         <v>-3.7549999999999999</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="57">
         <v>-3.13</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="57">
         <v>-2.504</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="57">
         <v>-1.879</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="58">
         <v>-1.2549999999999999</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="57">
         <v>-0.63</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="57">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="57">
         <v>0.623</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="57">
         <v>1.2470000000000001</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="57">
         <v>1.8720000000000001</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="57">
         <v>2.4969999999999999</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="58">
         <v>3.121</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="57">
         <v>3.7450000000000001</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="57">
         <v>4.37</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="57">
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
+      <c r="E12" s="57" cm="1">
+        <f t="array" ref="E12:U12">D17*(E9:U9/255)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="57">
+        <v>0.31372549019607843</v>
+      </c>
+      <c r="G12" s="57">
+        <v>0.62745098039215685</v>
+      </c>
+      <c r="H12" s="57">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="I12" s="57">
+        <v>1.2549019607843137</v>
+      </c>
+      <c r="J12" s="57">
+        <v>1.5686274509803921</v>
+      </c>
+      <c r="K12" s="58">
+        <v>1.8823529411764706</v>
+      </c>
+      <c r="L12" s="57">
+        <v>2.1960784313725492</v>
+      </c>
+      <c r="M12" s="57">
+        <v>2.5098039215686274</v>
+      </c>
+      <c r="N12" s="57">
+        <v>2.8235294117647056</v>
+      </c>
+      <c r="O12" s="57">
+        <v>3.1372549019607843</v>
+      </c>
+      <c r="P12" s="57">
+        <v>3.4509803921568629</v>
+      </c>
+      <c r="Q12" s="57">
+        <v>3.7647058823529411</v>
+      </c>
+      <c r="R12" s="58">
+        <v>4.0784313725490193</v>
+      </c>
+      <c r="S12" s="57">
+        <v>4.3921568627450984</v>
+      </c>
+      <c r="T12" s="57">
+        <v>4.7058823529411766</v>
+      </c>
+      <c r="U12" s="57">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="3:21" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="42" t="s">
+    <row r="13" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
+      <c r="E13" s="57" cm="1">
+        <f t="array" ref="E13:U13">((U11-E11)/255)*E9:U9+E11</f>
+        <v>-5.0029769999999996</v>
+      </c>
+      <c r="F13" s="57">
+        <v>-4.3782255019607836</v>
+      </c>
+      <c r="G13" s="57">
+        <v>-3.7534740039215686</v>
+      </c>
+      <c r="H13" s="59">
+        <v>-3.1287225058823527</v>
+      </c>
+      <c r="I13" s="59">
+        <v>-2.5039710078431372</v>
+      </c>
+      <c r="J13" s="59">
+        <v>-1.8792195098039217</v>
+      </c>
+      <c r="K13" s="60">
+        <v>-1.2544680117647058</v>
+      </c>
+      <c r="L13" s="57">
+        <v>-0.62971651372549076</v>
+      </c>
+      <c r="M13" s="57">
+        <v>-4.9650156862748318E-3</v>
+      </c>
+      <c r="N13" s="57">
+        <v>0.61978648235294109</v>
+      </c>
+      <c r="O13" s="59">
+        <v>1.2445379803921561</v>
+      </c>
+      <c r="P13" s="59">
+        <v>1.8692894784313721</v>
+      </c>
+      <c r="Q13" s="59">
+        <v>2.494040976470588</v>
+      </c>
+      <c r="R13" s="60">
+        <v>3.118792474509803</v>
+      </c>
+      <c r="S13" s="57">
+        <v>3.7435439725490181</v>
+      </c>
+      <c r="T13" s="57">
+        <v>4.3682954705882349</v>
+      </c>
+      <c r="U13" s="57">
+        <v>4.9539999999999988</v>
+      </c>
     </row>
-    <row r="14" spans="3:21" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="43" t="s">
+    <row r="14" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
+      <c r="E14" s="61" cm="1">
+        <f t="array" ref="E14:U14">E11:U11-E13:U13</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="61">
+        <v>-1.7744980392162546E-3</v>
+      </c>
+      <c r="G14" s="61">
+        <v>-1.5259960784312909E-3</v>
+      </c>
+      <c r="H14" s="62">
+        <v>-1.2774941176472154E-3</v>
+      </c>
+      <c r="I14" s="62">
+        <v>-2.8992156862805984E-5</v>
+      </c>
+      <c r="J14" s="62">
+        <v>2.195098039217136E-4</v>
+      </c>
+      <c r="K14" s="63">
+        <v>-5.3198823529410078E-4</v>
+      </c>
+      <c r="L14" s="61">
+        <v>-2.8348627450924813E-4</v>
+      </c>
+      <c r="M14" s="61">
+        <v>7.1650156862748324E-3</v>
+      </c>
+      <c r="N14" s="61">
+        <v>3.2135176470589055E-3</v>
+      </c>
+      <c r="O14" s="62">
+        <v>2.4620196078439793E-3</v>
+      </c>
+      <c r="P14" s="62">
+        <v>2.7105215686280548E-3</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>2.9590235294119083E-3</v>
+      </c>
+      <c r="R14" s="63">
+        <v>2.2075254901969821E-3</v>
+      </c>
+      <c r="S14" s="57">
+        <v>1.4560274509820559E-3</v>
+      </c>
+      <c r="T14" s="57">
+        <v>1.7045294117652432E-3</v>
+      </c>
+      <c r="U14" s="57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="3:21" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="50" t="s">
+    <row r="15" spans="3:21" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="43"/>
     </row>
-    <row r="16" spans="3:21" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C16" s="36"/>
+    <row r="16" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="26"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
+    <row r="17" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="17"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C20" s="37"/>
+    <row r="20" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C20" s="27"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C21" s="36"/>
+    <row r="21" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="26"/>
       <c r="D21" s="16"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C22" s="36"/>
+    <row r="22" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C22" s="26"/>
       <c r="D22" s="16"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="17"/>
       <c r="D25" s="16"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="3:11" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C26" s="37"/>
+    <row r="26" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="27"/>
       <c r="D26" s="16"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="3:11" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+    <row r="27" spans="3:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1975,21 +4240,22 @@
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A51936-D995-4A74-B662-833567D186E1}">
-  <dimension ref="C2:M17"/>
+  <dimension ref="C2:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:13" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2024,7 +4290,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
@@ -2059,125 +4325,189 @@
         <v>9015</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
+      <c r="E5" s="8" cm="1">
+        <f t="array" ref="E5:M5">D8*(E3:M3/D9)</f>
+        <v>1000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4000</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="9">
+        <v>6000</v>
+      </c>
+      <c r="K5" s="8">
+        <v>7000</v>
+      </c>
+      <c r="L5" s="8">
+        <v>8000</v>
+      </c>
+      <c r="M5" s="7">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="6" spans="3:13" ht="19.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="44" t="s">
+    <row r="6" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="23"/>
+      <c r="E6" s="65" cm="1">
+        <f t="array" ref="E6:M6">((E4:M4-E5:M5)/E5:M5)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="65">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="H6" s="65">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="I6" s="66">
+        <v>0.16</v>
+      </c>
+      <c r="J6" s="66">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K6" s="67">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="L6" s="65">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="M6" s="68">
+        <v>0.16666666666666669</v>
+      </c>
     </row>
-    <row r="7" spans="3:13" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="3:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="3:13" ht="19.7" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
+    <row r="7" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E17" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F17" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="49" t="s">
+    <row r="18" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="35">
+    <row r="19" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="25">
         <v>0.3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D19" s="8">
         <v>100</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E19" s="8">
         <v>30</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F19" s="7" cm="1">
+        <f t="array" ref="F19:F21">(E19:E21/D19:D21)*D8</f>
+        <v>3000</v>
+      </c>
     </row>
-    <row r="12" spans="3:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="35">
+    <row r="20" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="25">
         <v>0.6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D20" s="8">
         <v>100</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E20" s="8">
         <v>61</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F20" s="7">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="13" spans="3:13" ht="16.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="44">
+    <row r="21" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="34">
         <v>0.9</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D21" s="35">
         <v>100</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E21" s="35">
         <v>91</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F21" s="21">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="14" spans="3:13" ht="14.95" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:13" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="22" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D23" s="16">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="24" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D24" s="16">
         <v>4076</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="15.65" x14ac:dyDescent="0.25">
-      <c r="D17" s="60">
+    <row r="25" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="16">
         <v>1960</v>
       </c>
     </row>

--- a/Uloha6/Uloha6.xlsx
+++ b/Uloha6/Uloha6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{40512326-FFF1-408C-9625-D36730F73A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C42CE71-3C62-486A-84E8-EE0154F00689}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{40512326-FFF1-408C-9625-D36730F73A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5473FDF-530C-4113-A576-7670C79AEB93}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="288" windowWidth="30720" windowHeight="16272" activeTab="1" xr2:uid="{36740686-4C6F-4DA1-8A46-4259B500491E}"/>
+    <workbookView xWindow="45984" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="1" xr2:uid="{36740686-4C6F-4DA1-8A46-4259B500491E}"/>
   </bookViews>
   <sheets>
     <sheet name="6A" sheetId="1" r:id="rId1"/>
@@ -945,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1061,6 +1061,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,66 +1146,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3612,52 +3609,52 @@
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="39">
         <v>-1.21</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="39">
         <v>-1.95</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="39">
         <v>-2.38</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="40">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="40">
         <v>-2.16</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="40">
         <v>-1.53</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="40">
         <v>-0.66</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="41">
         <v>0.28799999999999998</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="39">
         <v>1.2</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="39">
         <v>1.93</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="39">
         <v>2.37</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="40">
         <v>2.4500000000000002</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="40">
         <v>2.14</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="40">
         <v>1.52</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="40">
         <v>0.66</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="41">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -3668,83 +3665,83 @@
       <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="52" cm="1">
+      <c r="E5" s="42" cm="1">
         <f t="array" ref="E5:T5">POWER(E4:T4,2)</f>
         <v>1.4641</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="42">
         <v>3.8024999999999998</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="42">
         <v>5.6643999999999997</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="43">
         <v>6.0025000000000013</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="43">
         <v>4.6656000000000004</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="43">
         <v>2.3409</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="43">
         <v>0.43560000000000004</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="44">
         <v>8.294399999999999E-2</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="42">
         <v>1.44</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="42">
         <v>3.7248999999999999</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="42">
         <v>5.6169000000000002</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="43">
         <v>6.0025000000000013</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="43">
         <v>4.5796000000000001</v>
       </c>
-      <c r="R5" s="53">
+      <c r="R5" s="43">
         <v>2.3104</v>
       </c>
-      <c r="S5" s="53">
+      <c r="S5" s="43">
         <v>0.43560000000000004</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="44">
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="46"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65"/>
     </row>
     <row r="7" spans="3:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="46">
         <f>SQRT((1/16)*SUM(_xlfn.ANCHORARRAY(E5)))</f>
         <v>1.7437843903418795</v>
       </c>
@@ -3772,7 +3769,7 @@
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="3:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -3831,7 +3828,7 @@
       </c>
     </row>
     <row r="10" spans="3:21" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="48"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="21" t="s">
         <v>1</v>
       </c>
@@ -3894,55 +3891,55 @@
       <c r="D11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="47">
         <v>-5.0029769999999996</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="47">
         <v>-4.38</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="47">
         <v>-3.7549999999999999</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="47">
         <v>-3.13</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="47">
         <v>-2.504</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="47">
         <v>-1.879</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="48">
         <v>-1.2549999999999999</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="47">
         <v>-0.63</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="47">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="N11" s="57">
+      <c r="N11" s="47">
         <v>0.623</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="47">
         <v>1.2470000000000001</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="47">
         <v>1.8720000000000001</v>
       </c>
-      <c r="Q11" s="57">
+      <c r="Q11" s="47">
         <v>2.4969999999999999</v>
       </c>
-      <c r="R11" s="58">
+      <c r="R11" s="48">
         <v>3.121</v>
       </c>
-      <c r="S11" s="57">
+      <c r="S11" s="47">
         <v>3.7450000000000001</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="47">
         <v>4.37</v>
       </c>
-      <c r="U11" s="57">
+      <c r="U11" s="47">
         <v>4.9539999999999997</v>
       </c>
     </row>
@@ -3953,56 +3950,56 @@
       <c r="D12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="57" cm="1">
+      <c r="E12" s="47" cm="1">
         <f t="array" ref="E12:U12">D17*(E9:U9/255)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="47">
         <v>0.31372549019607843</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="47">
         <v>0.62745098039215685</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="47">
         <v>0.94117647058823528</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="47">
         <v>1.2549019607843137</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="47">
         <v>1.5686274509803921</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="48">
         <v>1.8823529411764706</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="47">
         <v>2.1960784313725492</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="47">
         <v>2.5098039215686274</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="47">
         <v>2.8235294117647056</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="47">
         <v>3.1372549019607843</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="47">
         <v>3.4509803921568629</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="47">
         <v>3.7647058823529411</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="48">
         <v>4.0784313725490193</v>
       </c>
-      <c r="S12" s="57">
+      <c r="S12" s="47">
         <v>4.3921568627450984</v>
       </c>
-      <c r="T12" s="57">
+      <c r="T12" s="47">
         <v>4.7058823529411766</v>
       </c>
-      <c r="U12" s="57">
+      <c r="U12" s="47">
         <v>5</v>
       </c>
     </row>
@@ -4013,56 +4010,56 @@
       <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="57" cm="1">
+      <c r="E13" s="47" cm="1">
         <f t="array" ref="E13:U13">((U11-E11)/255)*E9:U9+E11</f>
         <v>-5.0029769999999996</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="47">
         <v>-4.3782255019607836</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="47">
         <v>-3.7534740039215686</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="49">
         <v>-3.1287225058823527</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="49">
         <v>-2.5039710078431372</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="49">
         <v>-1.8792195098039217</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="50">
         <v>-1.2544680117647058</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="47">
         <v>-0.62971651372549076</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="47">
         <v>-4.9650156862748318E-3</v>
       </c>
-      <c r="N13" s="57">
+      <c r="N13" s="47">
         <v>0.61978648235294109</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="49">
         <v>1.2445379803921561</v>
       </c>
-      <c r="P13" s="59">
+      <c r="P13" s="49">
         <v>1.8692894784313721</v>
       </c>
-      <c r="Q13" s="59">
+      <c r="Q13" s="49">
         <v>2.494040976470588</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="50">
         <v>3.118792474509803</v>
       </c>
-      <c r="S13" s="57">
+      <c r="S13" s="47">
         <v>3.7435439725490181</v>
       </c>
-      <c r="T13" s="57">
+      <c r="T13" s="47">
         <v>4.3682954705882349</v>
       </c>
-      <c r="U13" s="57">
+      <c r="U13" s="47">
         <v>4.9539999999999988</v>
       </c>
     </row>
@@ -4073,83 +4070,83 @@
       <c r="D14" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="61" cm="1">
+      <c r="E14" s="51" cm="1">
         <f t="array" ref="E14:U14">E11:U11-E13:U13</f>
         <v>0</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="51">
         <v>-1.7744980392162546E-3</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="51">
         <v>-1.5259960784312909E-3</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="52">
         <v>-1.2774941176472154E-3</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="52">
         <v>-2.8992156862805984E-5</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="52">
         <v>2.195098039217136E-4</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="53">
         <v>-5.3198823529410078E-4</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="51">
         <v>-2.8348627450924813E-4</v>
       </c>
-      <c r="M14" s="61">
+      <c r="M14" s="51">
         <v>7.1650156862748324E-3</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="51">
         <v>3.2135176470589055E-3</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="52">
         <v>2.4620196078439793E-3</v>
       </c>
-      <c r="P14" s="62">
+      <c r="P14" s="52">
         <v>2.7105215686280548E-3</v>
       </c>
-      <c r="Q14" s="62">
+      <c r="Q14" s="52">
         <v>2.9590235294119083E-3</v>
       </c>
-      <c r="R14" s="63">
+      <c r="R14" s="53">
         <v>2.2075254901969821E-3</v>
       </c>
-      <c r="S14" s="57">
+      <c r="S14" s="47">
         <v>1.4560274509820559E-3</v>
       </c>
-      <c r="T14" s="57">
+      <c r="T14" s="47">
         <v>1.7045294117652432E-3</v>
       </c>
-      <c r="U14" s="57">
+      <c r="U14" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:21" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="43"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
     </row>
     <row r="16" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="26"/>
@@ -4248,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A51936-D995-4A74-B662-833567D186E1}">
   <dimension ref="C2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4368,38 +4365,38 @@
       <c r="D6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="65" cm="1">
+      <c r="E6" s="54" cm="1">
         <f t="array" ref="E6:M6">((E4:M4-E5:M5)/E5:M5)*100</f>
         <v>0</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="54">
         <v>0.15</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="54">
         <v>0.16666666666666669</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="54">
         <v>0.17500000000000002</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="55">
         <v>0.16</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="55">
         <v>0.16666666666666669</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="56">
         <v>0.17142857142857143</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="54">
         <v>0.16250000000000001</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="57">
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D8">
@@ -4407,7 +4404,7 @@
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D9">

--- a/Uloha6/Uloha6.xlsx
+++ b/Uloha6/Uloha6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{40512326-FFF1-408C-9625-D36730F73A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5473FDF-530C-4113-A576-7670C79AEB93}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{40512326-FFF1-408C-9625-D36730F73A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6AE689-0C02-4B5B-BD98-7D0FEFAFABB2}"/>
   <bookViews>
-    <workbookView xWindow="45984" yWindow="0" windowWidth="15552" windowHeight="16656" activeTab="1" xr2:uid="{36740686-4C6F-4DA1-8A46-4259B500491E}"/>
+    <workbookView xWindow="45984" yWindow="0" windowWidth="15552" windowHeight="16656" firstSheet="1" xr2:uid="{36740686-4C6F-4DA1-8A46-4259B500491E}"/>
   </bookViews>
   <sheets>
     <sheet name="6A" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="OLE_LINK9" localSheetId="0">'6A'!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,24 +70,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>U</t>
     </r>
@@ -102,6 +84,9 @@
       </rPr>
       <t>k</t>
     </r>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <r>
@@ -129,6 +114,58 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> = 1,7483 V,  U'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> =……… V,  TA = 1400 ns</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">U' = </t>
   </si>
   <si>
     <t>N</t>
@@ -208,6 +245,43 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> =</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> +-5V</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">U_ref = </t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>X</t>
     </r>
   </si>
@@ -246,6 +320,9 @@
     <t>%</t>
   </si>
   <si>
+    <t xml:space="preserve">N_C = </t>
+  </si>
+  <si>
     <r>
       <t>T</t>
     </r>
@@ -279,84 +356,7 @@
     <t>ms</t>
   </si>
   <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> = 1,7483 V,  U'</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> =……… V,  TA = 1400 ns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ref</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> =</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> +-5V</t>
-    </r>
-  </si>
-  <si>
     <t>DeltaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U' = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_ref = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N_C = </t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,7 +1150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,7 +1168,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1205,7 +1205,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1299,7 +1299,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="cs-CZ"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1511,7 +1511,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132994479"/>
@@ -1573,7 +1573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132993999"/>
@@ -1621,7 +1621,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1635,7 +1635,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1672,7 +1672,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1900,7 +1900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1554040831"/>
@@ -1962,7 +1962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1609407967"/>
@@ -2010,7 +2010,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="cs-CZ"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3210,10 +3210,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3535,18 +3531,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62598626-73E1-4767-A2D9-7FABD54778C2}">
   <dimension ref="C2:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:21" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:21" ht="15" thickBot="1"/>
+    <row r="3" spans="3:21" ht="16.899999999999999" thickTop="1" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3602,12 +3598,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:21" ht="18.600000000000001" thickBot="1">
       <c r="C4" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="39">
         <v>-1.21</v>
@@ -3658,12 +3654,12 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="3:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:21" ht="20.45" thickBot="1">
       <c r="C5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
       </c>
       <c r="E5" s="42" cm="1">
         <f t="array" ref="E5:T5">POWER(E4:T4,2)</f>
@@ -3715,9 +3711,9 @@
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:21" ht="15.6" customHeight="1" thickBot="1">
       <c r="C6" s="63" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
@@ -3737,16 +3733,16 @@
       <c r="S6" s="64"/>
       <c r="T6" s="65"/>
     </row>
-    <row r="7" spans="3:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:21" ht="15.6" customHeight="1">
       <c r="C7" s="45" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D7" s="46">
         <f>SQRT((1/16)*SUM(_xlfn.ANCHORARRAY(E5)))</f>
         <v>1.7437843903418795</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -3764,13 +3760,13 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="3:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:21" ht="16.149999999999999" thickBot="1">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="3:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:21" ht="16.149999999999999" thickBot="1">
       <c r="C9" s="66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>1</v>
@@ -3827,7 +3823,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="3:21" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:21" ht="18.399999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="C10" s="67"/>
       <c r="D10" s="21" t="s">
         <v>1</v>
@@ -3884,12 +3880,12 @@
         <v>11111111</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="18.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:21" ht="18.399999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="C11" s="32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="47">
         <v>-5.0029769999999996</v>
@@ -3943,12 +3939,12 @@
         <v>4.9539999999999997</v>
       </c>
     </row>
-    <row r="12" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:21" ht="18.600000000000001" thickBot="1">
       <c r="C12" s="32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="47" cm="1">
         <f t="array" ref="E12:U12">D17*(E9:U9/255)</f>
@@ -4003,12 +3999,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:21" ht="18.600000000000001" thickBot="1">
       <c r="C13" s="32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="47" cm="1">
         <f t="array" ref="E13:U13">((U11-E11)/255)*E9:U9+E11</f>
@@ -4063,12 +4059,12 @@
         <v>4.9539999999999988</v>
       </c>
     </row>
-    <row r="14" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:21" ht="18.600000000000001" thickBot="1">
       <c r="C14" s="33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="51" cm="1">
         <f t="array" ref="E14:U14">E11:U11-E13:U13</f>
@@ -4123,13 +4119,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="16.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:21" ht="16.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="C15" s="58" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
@@ -4148,34 +4144,34 @@
       <c r="T15" s="61"/>
       <c r="U15" s="62"/>
     </row>
-    <row r="16" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:21" ht="15.6">
       <c r="C16" s="26"/>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="15.6">
       <c r="C17" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D17" s="16">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" ht="15.6">
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" ht="15.6">
       <c r="C19" s="17"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" ht="15.6">
       <c r="C20" s="27"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" ht="15.6">
       <c r="C21" s="26"/>
       <c r="D21" s="16"/>
       <c r="H21" s="28"/>
@@ -4183,7 +4179,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" ht="15.6">
       <c r="C22" s="26"/>
       <c r="D22" s="16"/>
       <c r="H22" s="28"/>
@@ -4191,7 +4187,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
     </row>
-    <row r="23" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" ht="15.6">
       <c r="C23" s="17"/>
       <c r="D23" s="16"/>
       <c r="H23" s="28"/>
@@ -4199,7 +4195,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" ht="15.6">
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
       <c r="H24" s="28"/>
@@ -4207,7 +4203,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="25" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" ht="15.6">
       <c r="C25" s="17"/>
       <c r="D25" s="16"/>
       <c r="H25" s="28"/>
@@ -4215,7 +4211,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="3:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" ht="15.6">
       <c r="C26" s="27"/>
       <c r="D26" s="16"/>
       <c r="H26" s="28"/>
@@ -4223,7 +4219,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="3:11" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" ht="18.399999999999999" customHeight="1">
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
@@ -4245,19 +4241,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A51936-D995-4A74-B662-833567D186E1}">
   <dimension ref="C2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="2" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:13" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" ht="15" thickBot="1"/>
+    <row r="3" spans="3:13" ht="19.149999999999999" thickTop="1" thickBot="1">
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>0.1</v>
@@ -4287,9 +4283,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" ht="16.149999999999999" thickBot="1">
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
@@ -4322,9 +4318,9 @@
         <v>9015</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" ht="18.600000000000001" thickBot="1">
       <c r="C5" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -4358,12 +4354,12 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" ht="18.600000000000001" thickBot="1">
       <c r="C6" s="34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" s="54" cm="1">
         <f t="array" ref="E6:M6">((E4:M4-E5:M5)/E5:M5)*100</f>
@@ -4394,56 +4390,56 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" ht="15" thickTop="1"/>
+    <row r="8" spans="3:13" ht="15.6">
       <c r="C8" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" ht="15.6">
       <c r="C9" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:13" ht="15" thickBot="1"/>
+    <row r="17" spans="3:6" ht="19.149999999999999" thickTop="1" thickBot="1">
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="37" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="18" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" ht="16.149999999999999" thickBot="1">
       <c r="C18" s="38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" ht="16.149999999999999" thickBot="1">
       <c r="C19" s="25">
         <v>0.3</v>
       </c>
@@ -4458,7 +4454,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" ht="16.149999999999999" thickBot="1">
       <c r="C20" s="25">
         <v>0.6</v>
       </c>
@@ -4472,7 +4468,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" ht="16.149999999999999" thickBot="1">
       <c r="C21" s="34">
         <v>0.9</v>
       </c>
@@ -4486,24 +4482,24 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" ht="15" thickTop="1"/>
+    <row r="23" spans="3:6" ht="15.6">
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" s="16">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" ht="15.6">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" s="16">
         <v>4076</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" ht="15.6">
       <c r="D25" s="16">
         <v>1960</v>
       </c>
